--- a/cleaned/mirae_asset_mutual_fund_portfolio.xlsx
+++ b/cleaned/mirae_asset_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,21 +511,17 @@
           <t>INE274J01014</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Oil</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>456999</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>456999</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>1921.4522955</t>
@@ -521,17 +532,20 @@
           <t>0.052250209203414</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -548,21 +562,17 @@
           <t>INE417T01026</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Financial Technology (Fintech)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>100887</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>100887</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>1742.116716</t>
@@ -573,17 +583,20 @@
           <t>0.047373522143092</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -600,21 +613,17 @@
           <t>INE935N01020</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11394</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11394</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>1707.499143</t>
@@ -625,17 +634,20 @@
           <t>0.046432163653162</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -652,21 +664,17 @@
           <t>INE849A01020</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>29096</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29096</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>1673.951072</t>
@@ -677,17 +685,20 @@
           <t>0.045519888218468</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -704,21 +715,17 @@
           <t>INE758T01015</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>752294</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>752294</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>1657.679829</t>
@@ -729,17 +736,20 @@
           <t>0.045077422978639</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -756,21 +766,17 @@
           <t>INE881D01027</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>16737</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>16737</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>1526.7575085</t>
@@ -781,17 +787,20 @@
           <t>0.041517241624388</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -808,21 +817,17 @@
           <t>INE118H01025</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>27446</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27446</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>1456.271037</t>
@@ -833,17 +838,20 @@
           <t>0.039600497248006</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -860,21 +868,17 @@
           <t>INE003A01024</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>23962</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>23962</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>1455.296127</t>
@@ -885,17 +889,20 @@
           <t>0.039573986440752</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -912,21 +919,17 @@
           <t>INE263A01024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>486382</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>486382</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>1423.396923</t>
@@ -937,17 +940,20 @@
           <t>0.038706548781058</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -964,21 +970,17 @@
           <t>INE303R01014</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>282919</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>282919</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>1423.365489</t>
@@ -989,17 +991,20 @@
           <t>0.038705693993728</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1016,21 +1021,17 @@
           <t>INE053F01010</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>901189</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>901189</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>1360.2546766</t>
@@ -1041,17 +1042,20 @@
           <t>0.036989516517649</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1068,21 +1072,17 @@
           <t>INE205A01025</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Diversified Metals</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>305480</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>305480</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>1348.38872</t>
@@ -1093,17 +1093,20 @@
           <t>0.036666844590691</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1120,21 +1123,17 @@
           <t>INE262H01021</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>21831</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21831</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>1316.976906</t>
@@ -1145,17 +1144,20 @@
           <t>0.035812660567073</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1172,21 +1174,17 @@
           <t>INE226A01021</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>99729</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>99729</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>1257.4330965</t>
@@ -1197,17 +1195,20 @@
           <t>0.034193480892184</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1224,21 +1225,17 @@
           <t>INE121J01017</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>350106</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>350106</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>1215.568032</t>
@@ -1249,17 +1246,20 @@
           <t>0.033055040773966</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1276,21 +1276,17 @@
           <t>INE053A01029</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>155629</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>155629</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>1190.094963</t>
@@ -1301,17 +1297,20 @@
           <t>0.032362349528172</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1328,21 +1327,17 @@
           <t>INE101A01026</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>38730</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>38730</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>1157.968905</t>
@@ -1353,17 +1348,20 @@
           <t>0.031488743009128</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1380,21 +1378,17 @@
           <t>INE663F01024</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>13971</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13971</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>1079.078127</t>
@@ -1405,17 +1399,20 @@
           <t>0.029343459639682</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1432,21 +1429,17 @@
           <t>INE326A01037</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>51747</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>51747</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>1076.5704615</t>
@@ -1457,17 +1450,20 @@
           <t>0.02927526848693</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1484,21 +1480,17 @@
           <t>INE066F01020</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>26266</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>26266</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>1034.039888</t>
@@ -1509,17 +1501,20 @@
           <t>0.028118731128121</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1536,21 +1531,17 @@
           <t>INE775A01035</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>723908</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>723908</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>1022.5924408</t>
@@ -1561,17 +1552,20 @@
           <t>0.027807439761457</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1588,21 +1582,17 @@
           <t>INE685A01028</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>30581</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>30581</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>999.723471</t>
@@ -1613,17 +1603,20 @@
           <t>0.027185561997895</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1640,21 +1633,17 @@
           <t>INE298A01020</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>34094</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>34094</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>993.516207</t>
@@ -1665,17 +1654,20 @@
           <t>0.027016767360974</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1692,21 +1684,17 @@
           <t>INE031A01017</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>420513</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>420513</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>965.918361</t>
@@ -1717,17 +1705,20 @@
           <t>0.026266296880681</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1744,21 +1735,17 @@
           <t>INE397D01024</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>58150</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>58150</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>945.69345</t>
@@ -1769,17 +1756,20 @@
           <t>0.025716319224017</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1796,21 +1786,17 @@
           <t>INE646L01027</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>19947</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>19947</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>862.5780945</t>
@@ -1821,17 +1807,20 @@
           <t>0.023456156573577</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1848,21 +1837,17 @@
           <t>INE010B01027</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>88454</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88454</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>858.224935</t>
@@ -1873,17 +1858,20 @@
           <t>0.023337780751756</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1900,21 +1888,17 @@
           <t>INE117A01022</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>12848</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>12848</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>754.775032</t>
@@ -1925,17 +1909,20 @@
           <t>0.020524659090353</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -1952,21 +1939,17 @@
           <t>INE917I01010</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>8480</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>8480</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>750.29344</t>
@@ -1977,17 +1960,20 @@
           <t>0.020402790793069</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
@@ -2004,21 +1990,17 @@
           <t>INE094A01015</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>163785</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>163785</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>586.7597625</t>
@@ -2029,17 +2011,20 @@
           <t>0.015955806144431</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related       </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>ALPHA</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Mirae Asset Mutual Fund</t>
         </is>
